--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC170.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC170.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -525,9 +525,6 @@
     <t>MA_04_01_CO_REC170</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC170, pág. 2)</t>
-  </si>
-  <si>
     <t>IMG01</t>
   </si>
   <si>
@@ -543,16 +540,13 @@
     <t>Conjuntos H y M de nombres, representados mediante Diagramas de Venn, con la intersección vacía.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC170, pág. 3)</t>
-  </si>
-  <si>
     <t>Conjunto M de letras de la palabra mariposa, representado por extensión; conjunto V de vocales representado por extensión.</t>
   </si>
   <si>
     <t>Conjunto D de números pares mayores que 0 y menores que 14 representado por extensión; conjunto T de múltiplos de 3 hasta 15, representado por extensión.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC170, pág. 4)</t>
+    <t>(Ver imagen en obsevaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1681,6 +1675,454 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="1976439"/>
+          <a:ext cx="3505200" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="2635250"/>
+          <a:ext cx="3505200" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3057525" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3057525" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3057525" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3057525" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3063874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1662112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16573500" y="3413126"/>
+          <a:ext cx="2849562" cy="1630361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3513137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16367125" y="5135562"/>
+          <a:ext cx="3505200" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="6127750"/>
+          <a:ext cx="3505200" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2395,9 +2837,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2854,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="51.375" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2591,19 +3033,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" ref="C10:C14" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>146</v>
@@ -2625,24 +3067,24 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="41.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f t="shared" ref="A11:A22" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>146</v>
@@ -2664,24 +3106,24 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>146</v>
@@ -2702,25 +3144,25 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>155</v>
+      <c r="J12" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>146</v>
@@ -2741,8 +3183,8 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>157</v>
+      <c r="J13" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="K13" s="21"/>
     </row>
@@ -2752,14 +3194,14 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
@@ -2781,7 +3223,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K14" s="20"/>
     </row>
@@ -5008,6 +5450,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
